--- a/ARISE/ARISE(D)-Repeated.xlsx
+++ b/ARISE/ARISE(D)-Repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\ARISE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\ARISE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4603C60-C90D-4D58-833A-2C1B8F5FED55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{209261DC-DE7B-4631-950D-65FC88C215B4}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="570" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
   <si>
     <t>Group</t>
   </si>
@@ -321,9 +323,6 @@
     <t>ARISE: Arelational and Relational Interval Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
     <t>This module uses raw data as input.</t>
   </si>
   <si>
@@ -334,9 +333,6 @@
   </si>
   <si>
     <t>This workbook also provides null hypothesis significance tests for pairwise comparisons.</t>
-  </si>
-  <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/ARISE</t>
   </si>
   <si>
     <t>cwendorf@uwsp.edu</t>
@@ -351,7 +347,10 @@
     <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
-    <t>Retrieved from https://github.com/cwendorf/BASE/tree/master/ARISE</t>
+    <t>Version: 2.20200104</t>
+  </si>
+  <si>
+    <t>https://cwendorf.github.io/BASE/ARISE</t>
   </si>
 </sst>
 </file>
@@ -1196,6 +1195,9 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1203,6 +1205,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1273,17 +1283,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3158,17 +3157,17 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="9" max="10" width="4.5703125" customWidth="1"/>
-    <col min="18" max="19" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" customWidth="1"/>
+    <col min="9" max="10" width="4.578125" customWidth="1"/>
+    <col min="18" max="19" width="4.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="80"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -3178,75 +3177,75 @@
       <c r="G1" s="81"/>
       <c r="H1" s="81"/>
     </row>
-    <row r="2" spans="1:17" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="141" t="s">
+    <row r="2" spans="1:17" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
       <c r="I2" s="83"/>
       <c r="J2" s="83"/>
-      <c r="K2" s="142" t="s">
+      <c r="K2" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-    </row>
-    <row r="3" spans="1:17" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+    </row>
+    <row r="3" spans="1:17" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="80"/>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="162" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-    </row>
-    <row r="4" spans="1:17" s="87" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+    </row>
+    <row r="4" spans="1:17" s="87" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="86"/>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="164" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-    </row>
-    <row r="5" spans="1:17" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="145" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+    </row>
+    <row r="5" spans="1:17" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="80"/>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
@@ -3256,7 +3255,7 @@
       <c r="G5" s="81"/>
       <c r="H5" s="81"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B6" s="22" t="s">
         <v>65</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="84"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3285,7 +3284,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
@@ -3302,7 +3301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
         <v>70</v>
@@ -3319,7 +3318,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="84"/>
       <c r="B10" s="1" t="s">
         <v>71</v>
@@ -3336,7 +3335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="84"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -3345,7 +3344,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="84"/>
       <c r="B12" s="133" t="s">
         <v>68</v>
@@ -3360,7 +3359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="84"/>
       <c r="B13" s="26"/>
       <c r="E13" s="26"/>
@@ -3369,10 +3368,10 @@
       <c r="H13" s="26"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="84"/>
       <c r="B14" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -3382,10 +3381,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="84"/>
       <c r="B15" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -3395,10 +3394,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="84"/>
       <c r="B16" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -3409,9 +3408,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -3423,7 +3422,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="84"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -3435,7 +3434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="84"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -3443,7 +3442,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="84"/>
       <c r="B20" s="22" t="s">
         <v>56</v>
@@ -3458,7 +3457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="84"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -3469,7 +3468,7 @@
       <c r="H21" s="26"/>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="84"/>
       <c r="B22" s="26" t="s">
         <v>34</v>
@@ -3486,7 +3485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="84"/>
       <c r="B23" s="26" t="s">
         <v>31</v>
@@ -3503,7 +3502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="26" t="s">
         <v>28</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="84"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -3528,16 +3527,16 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="K25" s="97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="84"/>
       <c r="K26" s="97" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="84"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -3546,7 +3545,7 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="84"/>
       <c r="B28" s="22" t="s">
         <v>26</v>
@@ -3558,10 +3557,10 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="K28" s="133" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="84"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -3572,7 +3571,7 @@
       <c r="H29" s="26"/>
       <c r="K29" s="26"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="26" t="s">
         <v>25</v>
       </c>
@@ -3583,27 +3582,27 @@
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
       <c r="K30" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="26"/>
       <c r="K31" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K33" s="97"/>
     </row>
   </sheetData>
@@ -3637,22 +3636,22 @@
       <selection activeCell="B7" sqref="B7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.26171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="31" customWidth="1"/>
-    <col min="2" max="8" width="11.28515625" style="31"/>
-    <col min="9" max="10" width="4.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16" width="11.28515625" style="32"/>
-    <col min="17" max="17" width="11.28515625" style="125"/>
-    <col min="18" max="18" width="4.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="31" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.28515625" style="31" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" style="31" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" style="31" customWidth="1"/>
-    <col min="29" max="16384" width="11.28515625" style="31"/>
+    <col min="1" max="1" width="4.68359375" style="31" customWidth="1"/>
+    <col min="2" max="8" width="11.26171875" style="31"/>
+    <col min="9" max="10" width="4.68359375" style="31" customWidth="1"/>
+    <col min="11" max="16" width="11.26171875" style="32"/>
+    <col min="17" max="17" width="11.26171875" style="125"/>
+    <col min="18" max="18" width="4.68359375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="4.68359375" style="31" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.26171875" style="31" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.68359375" style="31" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.68359375" style="31" customWidth="1"/>
+    <col min="29" max="16384" width="11.26171875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K1" s="65"/>
       <c r="L1" s="64"/>
       <c r="M1" s="64"/>
@@ -3664,36 +3663,36 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="150" t="s">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="K2" s="143" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="K2" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
       <c r="Q2" s="134"/>
-      <c r="T2" s="150" t="s">
+      <c r="T2" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="153"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K3" s="135"/>
       <c r="L3" s="135"/>
       <c r="M3" s="135"/>
@@ -3709,7 +3708,7 @@
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
     </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="55" t="s">
         <v>47</v>
       </c>
@@ -3737,7 +3736,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
@@ -3759,7 +3758,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="47" t="s">
         <v>44</v>
       </c>
@@ -3814,14 +3813,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33"/>
@@ -3861,14 +3860,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
       <c r="Q8" s="125" t="str">
         <f t="shared" ref="Q8:Q71" si="2">IFERROR(AVERAGE(L8:P8),"")</f>
         <v/>
@@ -3902,7 +3901,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -3943,7 +3942,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="61" t="s">
         <v>42</v>
       </c>
@@ -3986,14 +3985,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
+    <row r="11" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
       <c r="Q11" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4027,14 +4026,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
       <c r="Q12" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4066,14 +4065,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
       <c r="Q13" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4087,14 +4086,14 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="155"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
+    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
       <c r="Q14" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4110,7 +4109,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
@@ -4124,7 +4123,7 @@
       </c>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B16" s="55" t="s">
         <v>41</v>
       </c>
@@ -4140,7 +4139,7 @@
       </c>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
       <c r="D17" s="52"/>
@@ -4153,11 +4152,11 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="158" t="s">
+    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="158"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="108" t="s">
         <v>38</v>
       </c>
@@ -4172,13 +4171,13 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="156"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="157"/>
+    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="160"/>
       <c r="H19" s="117"/>
       <c r="Q19" s="125" t="str">
         <f t="shared" si="2"/>
@@ -4189,13 +4188,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="145"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="146"/>
+    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="148"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="149"/>
       <c r="H20" s="118"/>
       <c r="Q20" s="125" t="str">
         <f t="shared" si="2"/>
@@ -4209,13 +4208,13 @@
       <c r="Y20" s="51"/>
       <c r="Z20" s="50"/>
     </row>
-    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="146"/>
+    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="149"/>
       <c r="H21" s="118"/>
       <c r="Q21" s="125" t="str">
         <f t="shared" si="2"/>
@@ -4247,13 +4246,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="146"/>
+    <row r="22" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="149"/>
       <c r="H22" s="118"/>
       <c r="Q22" s="125" t="str">
         <f t="shared" si="2"/>
@@ -4285,13 +4284,13 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="149"/>
+    <row r="23" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="119"/>
       <c r="Q23" s="125" t="str">
         <f t="shared" si="2"/>
@@ -4320,7 +4319,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -4352,7 +4351,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q25" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4374,7 +4373,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q26" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4392,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q27" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4406,7 +4405,7 @@
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q28" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4422,7 +4421,7 @@
       <c r="Y28" s="38"/>
       <c r="Z28" s="23"/>
     </row>
-    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q29" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4435,7 +4434,7 @@
       <c r="Y29" s="38"/>
       <c r="Z29" s="23"/>
     </row>
-    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="Q30" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4450,7 +4449,7 @@
       <c r="Y30" s="38"/>
       <c r="Z30" s="23"/>
     </row>
-    <row r="31" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q31" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4464,7 +4463,7 @@
       <c r="Y31" s="38"/>
       <c r="Z31" s="23"/>
     </row>
-    <row r="32" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q32" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4492,7 +4491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q33" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4517,7 +4516,7 @@
       <c r="Y33" s="122"/>
       <c r="Z33" s="92"/>
     </row>
-    <row r="34" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q34" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4551,7 +4550,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q35" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4576,7 +4575,7 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="12"/>
     </row>
-    <row r="36" spans="17:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q36" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4600,7 +4599,7 @@
       <c r="Y36" s="34"/>
       <c r="Z36" s="25"/>
     </row>
-    <row r="37" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q37" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4613,6079 +4612,6079 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q38" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q39" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q40" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q41" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q42" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q43" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q44" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q45" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q46" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q47" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q48" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q49" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q50" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q51" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q52" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q53" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q54" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q55" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q56" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q57" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q58" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q59" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q60" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q61" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q62" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q63" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q64" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q65" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q66" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q67" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q68" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q69" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q70" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q71" s="125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q72" s="125" t="str">
         <f t="shared" ref="Q72:Q135" si="3">IFERROR(AVERAGE(L72:P72),"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q73" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q74" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q75" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q76" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q77" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q78" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q79" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q80" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q81" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q82" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q83" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q84" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q85" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q86" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q87" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q88" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q89" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q90" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q91" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q92" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q93" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q94" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q95" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q96" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q97" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q98" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q99" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q100" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q101" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q102" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q103" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q104" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q105" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q106" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q107" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q108" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q109" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q110" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q111" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q112" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q113" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q114" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q115" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q116" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q117" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q118" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q119" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q120" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q121" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q122" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q123" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q124" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q125" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q126" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q127" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q128" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q129" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q130" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q131" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q132" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q133" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q134" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q135" s="125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q136" s="125" t="str">
         <f t="shared" ref="Q136:Q199" si="4">IFERROR(AVERAGE(L136:P136),"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q137" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q138" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q139" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q140" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q141" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q142" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q143" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q144" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q145" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q146" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q147" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q148" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q149" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q150" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q151" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q152" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q153" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q154" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q155" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q156" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q157" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q158" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q159" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q160" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q161" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q162" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q163" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q164" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q165" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q166" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q167" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q168" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q169" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q170" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q171" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q172" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q173" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q174" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q175" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q176" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q177" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q178" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q179" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q180" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q181" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q182" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q183" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q184" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q185" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q186" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q187" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q188" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q189" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q190" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q191" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q192" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q193" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q194" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q195" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q196" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q197" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q198" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q199" s="125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q200" s="125" t="str">
         <f t="shared" ref="Q200:Q263" si="5">IFERROR(AVERAGE(L200:P200),"")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q201" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q202" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q203" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q204" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q205" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q206" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q207" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q208" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q209" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q210" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q211" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q212" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q213" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q214" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q215" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q216" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q217" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q218" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q219" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q220" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q221" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q222" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q223" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q224" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q225" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q226" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q227" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q228" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q229" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q230" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q231" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q232" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q233" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q234" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q235" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q236" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q237" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q238" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q239" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q240" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q241" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q242" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q243" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q244" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q245" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q246" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q247" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q248" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q249" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q250" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q251" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q252" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q253" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q254" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q255" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q256" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q257" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q258" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q259" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q260" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q261" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q262" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q263" s="125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q264" s="125" t="str">
         <f t="shared" ref="Q264:Q327" si="6">IFERROR(AVERAGE(L264:P264),"")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q265" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q266" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q267" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q268" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q269" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q270" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q271" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q272" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q273" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q274" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q275" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q276" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q277" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q278" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q279" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q280" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q281" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q282" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q283" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q284" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q285" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q286" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q287" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q288" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q289" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q290" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q291" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q292" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q293" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q294" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q295" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q296" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q297" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q298" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q299" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q300" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q301" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q302" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q303" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q304" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q305" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q306" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q307" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q308" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q309" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q310" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q311" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q312" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q313" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q314" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q315" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q316" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q317" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q318" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q319" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q320" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q321" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q322" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q323" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q324" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q325" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q326" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q327" s="125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q328" s="125" t="str">
         <f t="shared" ref="Q328:Q391" si="7">IFERROR(AVERAGE(L328:P328),"")</f>
         <v/>
       </c>
     </row>
-    <row r="329" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q329" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q330" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q331" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q332" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q333" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q334" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q335" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q336" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q337" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q338" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q339" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q340" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q341" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q342" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q343" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q344" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q345" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q346" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q347" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q348" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q349" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q350" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q351" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q352" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q353" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q354" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q355" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q356" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q357" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q358" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q359" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q360" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q361" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q362" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q363" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q364" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q365" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q366" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q367" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q368" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q369" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q370" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q371" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q372" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q373" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q374" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q375" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q376" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q377" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q378" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q379" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q380" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q381" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q382" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q383" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q384" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q385" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q386" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q387" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q388" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q389" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q390" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q391" s="125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q392" s="125" t="str">
         <f t="shared" ref="Q392:Q455" si="8">IFERROR(AVERAGE(L392:P392),"")</f>
         <v/>
       </c>
     </row>
-    <row r="393" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q393" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q394" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q395" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q396" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q397" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q398" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q399" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q400" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q401" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q402" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q403" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q404" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q405" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q406" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q407" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q408" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q409" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q410" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q411" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q412" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q413" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q414" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q415" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q416" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q417" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q418" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q419" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q420" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q421" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q422" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q423" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q424" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q425" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q426" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q427" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q428" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q429" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q430" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q431" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q432" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q433" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q434" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q435" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q436" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q437" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q438" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q439" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q440" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q441" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q442" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q443" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q444" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q445" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q446" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q447" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q448" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q449" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q450" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q451" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q452" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q453" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q454" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q455" s="125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q456" s="125" t="str">
         <f t="shared" ref="Q456:Q519" si="9">IFERROR(AVERAGE(L456:P456),"")</f>
         <v/>
       </c>
     </row>
-    <row r="457" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q457" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q458" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q459" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q460" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q461" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q462" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q463" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q464" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q465" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q466" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q467" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q468" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q469" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q470" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q471" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q472" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q473" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q474" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q475" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q476" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q477" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q478" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q479" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q480" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q481" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q482" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q483" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="484" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q484" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="485" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q485" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="486" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q486" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="487" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q487" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="488" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q488" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="489" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q489" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="490" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q490" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="491" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q491" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="492" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q492" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="493" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q493" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="494" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q494" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="495" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q495" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="496" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q496" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="497" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q497" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="498" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q498" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="499" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q499" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="500" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q500" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="501" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q501" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="502" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q502" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="503" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q503" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="504" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q504" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="505" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q505" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="506" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q506" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="507" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q507" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="508" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q508" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="509" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q509" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="510" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q510" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="511" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q511" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="512" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q512" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="513" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q513" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="514" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q514" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="515" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q515" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="516" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q516" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="517" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q517" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="518" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q518" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="519" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q519" s="125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="520" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q520" s="125" t="str">
         <f t="shared" ref="Q520:Q583" si="10">IFERROR(AVERAGE(L520:P520),"")</f>
         <v/>
       </c>
     </row>
-    <row r="521" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q521" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="522" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q522" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="523" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q523" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="524" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q524" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="525" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q525" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="526" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q526" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="527" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q527" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="528" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q528" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="529" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q529" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="530" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q530" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="531" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q531" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="532" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q532" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="533" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q533" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="534" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q534" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="535" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q535" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="536" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q536" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="537" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q537" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="538" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q538" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="539" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q539" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="540" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q540" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="541" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q541" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="542" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q542" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="543" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q543" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="544" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q544" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="545" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q545" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="546" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q546" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="547" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q547" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="548" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q548" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="549" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q549" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="550" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q550" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="551" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q551" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="552" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q552" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="553" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q553" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="554" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q554" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="555" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q555" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="556" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q556" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="557" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q557" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="558" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q558" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="559" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q559" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="560" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q560" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="561" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q561" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="562" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q562" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="563" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q563" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="564" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q564" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="565" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q565" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="566" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q566" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="567" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q567" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="568" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q568" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="569" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q569" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="570" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q570" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="571" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q571" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="572" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q572" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="573" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q573" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="574" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q574" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="575" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q575" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="576" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q576" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="577" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q577" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="578" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q578" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="579" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q579" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="580" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q580" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="581" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q581" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="582" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q582" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="583" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q583" s="125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="584" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q584" s="125" t="str">
         <f t="shared" ref="Q584:Q647" si="11">IFERROR(AVERAGE(L584:P584),"")</f>
         <v/>
       </c>
     </row>
-    <row r="585" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q585" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="586" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q586" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="587" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q587" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="588" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q588" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="589" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q589" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="590" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q590" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="591" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q591" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="592" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q592" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="593" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q593" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="594" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q594" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="595" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q595" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="596" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q596" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="597" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q597" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="598" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q598" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="599" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q599" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="600" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q600" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="601" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q601" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="602" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q602" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="603" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q603" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="604" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q604" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="605" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q605" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="606" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q606" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="607" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q607" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="608" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q608" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="609" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q609" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="610" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q610" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="611" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q611" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="612" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q612" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="613" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q613" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="614" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q614" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="615" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q615" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="616" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q616" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="617" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q617" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="618" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q618" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="619" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q619" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="620" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q620" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="621" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q621" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="622" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q622" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="623" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q623" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="624" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q624" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="625" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q625" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="626" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q626" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="627" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q627" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="628" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q628" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="629" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q629" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="630" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q630" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="631" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q631" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="632" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q632" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="633" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q633" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="634" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q634" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="635" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q635" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="636" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q636" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="637" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q637" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="638" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q638" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="639" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q639" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="640" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q640" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="641" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q641" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="642" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q642" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="643" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q643" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="644" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q644" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="645" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q645" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="646" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q646" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="647" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q647" s="125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="648" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q648" s="125" t="str">
         <f t="shared" ref="Q648:Q711" si="12">IFERROR(AVERAGE(L648:P648),"")</f>
         <v/>
       </c>
     </row>
-    <row r="649" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q649" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="650" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q650" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="651" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q651" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="652" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q652" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="653" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q653" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="654" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q654" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="655" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q655" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="656" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q656" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="657" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q657" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="658" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q658" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="659" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q659" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="660" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q660" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="661" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q661" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="662" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q662" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="663" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q663" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="664" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q664" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="665" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q665" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="666" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q666" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="667" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q667" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="668" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q668" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="669" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q669" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="670" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q670" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="671" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q671" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="672" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q672" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="673" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q673" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="674" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q674" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="675" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q675" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="676" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q676" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="677" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q677" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="678" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q678" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="679" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q679" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="680" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q680" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="681" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q681" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="682" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q682" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="683" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q683" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="684" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q684" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="685" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q685" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="686" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q686" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="687" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q687" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="688" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q688" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="689" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q689" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="690" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q690" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="691" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q691" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="692" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q692" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="693" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q693" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="694" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q694" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="695" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q695" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="696" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q696" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="697" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q697" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="698" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q698" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="699" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q699" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="700" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q700" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="701" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q701" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="702" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q702" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="703" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q703" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="704" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q704" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="705" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q705" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="706" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q706" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="707" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q707" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="708" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q708" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="709" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q709" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="710" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q710" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="711" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q711" s="125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="712" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q712" s="125" t="str">
         <f t="shared" ref="Q712:Q775" si="13">IFERROR(AVERAGE(L712:P712),"")</f>
         <v/>
       </c>
     </row>
-    <row r="713" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q713" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="714" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q714" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="715" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q715" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="716" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q716" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="717" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q717" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="718" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q718" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="719" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q719" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="720" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q720" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="721" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q721" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="722" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q722" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="723" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q723" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="724" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q724" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="725" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q725" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="726" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q726" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="727" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q727" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="728" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q728" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="729" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q729" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="730" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q730" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="731" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q731" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="732" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q732" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="733" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q733" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="734" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q734" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="735" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q735" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="736" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q736" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="737" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q737" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="738" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q738" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="739" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q739" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="740" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q740" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="741" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q741" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="742" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q742" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="743" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q743" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="744" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q744" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="745" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q745" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="746" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q746" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="747" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q747" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="748" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q748" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="749" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q749" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="750" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q750" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="751" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q751" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="752" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q752" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="753" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q753" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="754" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q754" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="755" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q755" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="756" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q756" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="757" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q757" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="758" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q758" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="759" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q759" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="760" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q760" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="761" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q761" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="762" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q762" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="763" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q763" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="764" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q764" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="765" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q765" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="766" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q766" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="767" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q767" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="768" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q768" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="769" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q769" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="770" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q770" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="771" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q771" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="772" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q772" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="773" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q773" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="774" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q774" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="775" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q775" s="125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="776" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q776" s="125" t="str">
         <f t="shared" ref="Q776:Q839" si="14">IFERROR(AVERAGE(L776:P776),"")</f>
         <v/>
       </c>
     </row>
-    <row r="777" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q777" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="778" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q778" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="779" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q779" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="780" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q780" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="781" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q781" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="782" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q782" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="783" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q783" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="784" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q784" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="785" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q785" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="786" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q786" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="787" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q787" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="788" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q788" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="789" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q789" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="790" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q790" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="791" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q791" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="792" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q792" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="793" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q793" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="794" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q794" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="795" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q795" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="796" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q796" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="797" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q797" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="798" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q798" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="799" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q799" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="800" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q800" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="801" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q801" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="802" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q802" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="803" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q803" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="804" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q804" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="805" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q805" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="806" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q806" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="807" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q807" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="808" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q808" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="809" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q809" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="810" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q810" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="811" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q811" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="812" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q812" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="813" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q813" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="814" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q814" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="815" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q815" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="816" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q816" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="817" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q817" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="818" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q818" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="819" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q819" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="820" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q820" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="821" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q821" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="822" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q822" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="823" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q823" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="824" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q824" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="825" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q825" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="826" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q826" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="827" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q827" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="828" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q828" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="829" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q829" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="830" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q830" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="831" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q831" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="832" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q832" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="833" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q833" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="834" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q834" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="835" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q835" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="836" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q836" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="837" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q837" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="838" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q838" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="839" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q839" s="125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="840" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q840" s="125" t="str">
         <f t="shared" ref="Q840:Q903" si="15">IFERROR(AVERAGE(L840:P840),"")</f>
         <v/>
       </c>
     </row>
-    <row r="841" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q841" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="842" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q842" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="843" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q843" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="844" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q844" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="845" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q845" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="846" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q846" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="847" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q847" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="848" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q848" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="849" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q849" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="850" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q850" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="851" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q851" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="852" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q852" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="853" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q853" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="854" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q854" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="855" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q855" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="856" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q856" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="857" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q857" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="858" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q858" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="859" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q859" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="860" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q860" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="861" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q861" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="862" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q862" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="863" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q863" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="864" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q864" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="865" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q865" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="866" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q866" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="867" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q867" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="868" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q868" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="869" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q869" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="870" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q870" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="871" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q871" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="872" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q872" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="873" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q873" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="874" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q874" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="875" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q875" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="876" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q876" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="877" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q877" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="878" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q878" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="879" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q879" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="880" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q880" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="881" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q881" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="882" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q882" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="883" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q883" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="884" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q884" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="885" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q885" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="886" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q886" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="887" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q887" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="888" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q888" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="889" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q889" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="890" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q890" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="891" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q891" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="892" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q892" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="893" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q893" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="894" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q894" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="895" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q895" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="896" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q896" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="897" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q897" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="898" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q898" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="899" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q899" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="900" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q900" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="901" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q901" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="902" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q902" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="903" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q903" s="125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="904" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q904" s="125" t="str">
         <f t="shared" ref="Q904:Q967" si="16">IFERROR(AVERAGE(L904:P904),"")</f>
         <v/>
       </c>
     </row>
-    <row r="905" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q905" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="906" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q906" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="907" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q907" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="908" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q908" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="909" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q909" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="910" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q910" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="911" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q911" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="912" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q912" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="913" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q913" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="914" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q914" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="915" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q915" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="916" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q916" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="917" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q917" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="918" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q918" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="919" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q919" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="920" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q920" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="921" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q921" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="922" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q922" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="923" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q923" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="924" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q924" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="925" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q925" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="926" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q926" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="927" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q927" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="928" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q928" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="929" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q929" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="930" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q930" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="931" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q931" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="932" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q932" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="933" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q933" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="934" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q934" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="935" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q935" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="936" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q936" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="937" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q937" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="938" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q938" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="939" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q939" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="940" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q940" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="941" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q941" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="942" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q942" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="943" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q943" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="944" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q944" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="945" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q945" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="946" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q946" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="947" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q947" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="948" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q948" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="949" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q949" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="950" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q950" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="951" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q951" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="952" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q952" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="953" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q953" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="954" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q954" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="955" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q955" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="956" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q956" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="957" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q957" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="958" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q958" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="959" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q959" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="960" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q960" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="961" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q961" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="962" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q962" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="963" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q963" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="964" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q964" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="965" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q965" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="966" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q966" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="967" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q967" s="125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="968" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q968" s="125" t="str">
         <f t="shared" ref="Q968:Q1031" si="17">IFERROR(AVERAGE(L968:P968),"")</f>
         <v/>
       </c>
     </row>
-    <row r="969" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q969" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="970" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q970" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="971" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q971" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="972" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q972" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="973" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q973" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="974" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q974" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="975" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q975" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="976" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q976" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="977" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q977" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="978" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q978" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="979" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q979" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="980" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q980" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="981" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q981" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="982" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q982" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="983" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q983" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="984" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q984" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="985" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q985" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="986" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q986" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="987" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q987" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="988" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q988" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="989" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q989" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="990" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q990" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="991" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q991" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="992" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q992" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="993" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q993" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="994" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q994" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="995" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q995" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="996" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q996" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="997" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q997" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="998" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q998" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="999" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q999" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1000" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1000" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1001" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1001" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1002" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1002" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1003" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1003" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1004" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1004" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1005" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1005" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1006" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1006" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1007" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1007" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1008" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1008" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1009" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1009" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1010" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1010" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1011" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1011" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1012" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1012" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1013" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1013" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1014" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1014" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1015" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1015" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1016" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1016" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1017" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1017" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1018" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1018" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1019" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1019" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1020" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1020" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1021" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1021" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1022" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1022" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1023" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1023" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1024" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1024" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1025" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1025" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1026" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1026" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1027" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1027" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1028" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1028" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1029" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1029" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1030" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1030" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1031" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1031" s="125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1032" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1032" s="125" t="str">
         <f t="shared" ref="Q1032:Q1050" si="18">IFERROR(AVERAGE(L1032:P1032),"")</f>
         <v/>
       </c>
     </row>
-    <row r="1033" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1033" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1034" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1034" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1035" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1035" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1036" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1036" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1037" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1037" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1038" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1038" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1039" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1039" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1040" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1040" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1041" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1041" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1042" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1042" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1043" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1043" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1044" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1044" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1045" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1045" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1046" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1046" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1047" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1047" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1048" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1048" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1049" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1049" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1050" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Q1050" s="125" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -10728,37 +10727,37 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="98" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="98"/>
-    <col min="9" max="10" width="4.5703125" style="98" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="98"/>
-    <col min="18" max="19" width="4.5703125" style="98" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="98"/>
+    <col min="1" max="1" width="4.578125" style="98" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="98"/>
+    <col min="9" max="10" width="4.578125" style="98" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="98"/>
+    <col min="18" max="19" width="4.578125" style="98" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="98"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="161" t="s">
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="K2" s="161" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="K2" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-    </row>
-    <row r="4" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+    </row>
+    <row r="4" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="99" t="s">
         <v>86</v>
       </c>
@@ -10783,7 +10782,7 @@
       <c r="P4" s="98"/>
       <c r="Q4" s="98"/>
     </row>
-    <row r="5" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="98"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
@@ -10796,7 +10795,7 @@
       <c r="P5" s="98"/>
       <c r="Q5" s="98"/>
     </row>
-    <row r="6" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="110" t="s">
         <v>79</v>
       </c>
@@ -10806,14 +10805,14 @@
       <c r="D6" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="160" t="s">
+      <c r="E6" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160" t="s">
+      <c r="F6" s="163"/>
+      <c r="G6" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="160"/>
+      <c r="H6" s="163"/>
       <c r="I6" s="98"/>
       <c r="J6" s="98"/>
       <c r="K6" s="102" t="s">
@@ -10838,7 +10837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="136" t="str">
         <f>IF(C7="","",IF(Data!B19="","1",Data!B19))</f>
         <v/>
@@ -10895,7 +10894,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="137" t="str">
         <f>IF(C8="","",IF(Data!B20="","2",Data!B20))</f>
         <v/>
@@ -10952,7 +10951,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="137" t="str">
         <f>IF(C9="","",IF(Data!B21="","3",Data!B21))</f>
         <v/>
@@ -11009,7 +11008,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="137" t="str">
         <f>IF(C10="","",IF(Data!B22="","4",Data!B22))</f>
         <v/>
@@ -11066,7 +11065,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="138" t="str">
         <f>IF(C11="","",IF(Data!B23="","5",Data!B23))</f>
         <v/>
@@ -11123,7 +11122,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="98"/>
       <c r="C12" s="98"/>
       <c r="D12" s="98"/>
@@ -11141,7 +11140,7 @@
       <c r="P12" s="98"/>
       <c r="Q12" s="98"/>
     </row>
-    <row r="13" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="99" t="s">
         <v>67</v>
       </c>
@@ -11163,7 +11162,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="98"/>
       <c r="C14" s="98"/>
       <c r="D14" s="98"/>
@@ -11181,7 +11180,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
@@ -11217,7 +11216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
@@ -11267,7 +11266,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -11316,7 +11315,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -11365,7 +11364,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="7">
         <v>1.1499999999999999</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="7">
         <v>2.15</v>
       </c>
@@ -11459,7 +11458,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="7">
         <v>2.15</v>
       </c>
@@ -11506,7 +11505,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="7">
         <v>2.15</v>
       </c>
@@ -11553,7 +11552,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="7">
         <v>3.15</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="7">
         <v>3.15</v>
       </c>
@@ -11647,7 +11646,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="7">
         <v>3.15</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="7">
         <v>4.1500000000000004</v>
       </c>
@@ -11723,7 +11722,7 @@
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B27" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -11748,7 +11747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="6">
         <v>5.15</v>
       </c>
@@ -11815,7 +11814,7 @@
         <v>p</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="6">
         <v>5.15</v>
       </c>
@@ -11854,7 +11853,7 @@
       <c r="P30" s="122"/>
       <c r="Q30" s="122"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="6">
         <v>5.15</v>
@@ -11900,7 +11899,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
@@ -11923,7 +11922,7 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="3"/>
       <c r="K33" s="132" t="s">
         <v>14</v>
@@ -11944,7 +11943,7 @@
       <c r="P33" s="34"/>
       <c r="Q33" s="34"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
@@ -11953,7 +11952,7 @@
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -11962,7 +11961,7 @@
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -11971,7 +11970,7 @@
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -11980,7 +11979,7 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -11989,7 +11988,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -11998,7 +11997,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
@@ -12007,7 +12006,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -12016,7 +12015,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -12025,7 +12024,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
@@ -12034,7 +12033,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -12043,7 +12042,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -12052,7 +12051,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
@@ -12061,7 +12060,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -12070,7 +12069,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -12079,7 +12078,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -12088,7 +12087,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -12097,7 +12096,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -12106,7 +12105,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
@@ -12115,7 +12114,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -12124,7 +12123,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -12133,7 +12132,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="15"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -12142,7 +12141,7 @@
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -12151,7 +12150,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -12160,7 +12159,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -12169,7 +12168,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -12178,7 +12177,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -12187,7 +12186,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -12196,7 +12195,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -12205,7 +12204,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -12214,7 +12213,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -12223,7 +12222,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -12232,7 +12231,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -12241,7 +12240,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -12250,7 +12249,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -12259,7 +12258,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -12268,7 +12267,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -12277,7 +12276,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -12286,7 +12285,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -12295,7 +12294,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -12304,7 +12303,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>

--- a/ARISE/ARISE(D)-Repeated.xlsx
+++ b/ARISE/ARISE(D)-Repeated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\ARISE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{209261DC-DE7B-4631-950D-65FC88C215B4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6DC31D3D-4A4C-432A-AF06-C6C49BC109E7}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,9 +266,6 @@
     <t>Estimation Approach</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/pych/cw</t>
-  </si>
-  <si>
     <t>For Hypothesis Tests and Confidence Intervals</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/ARISE</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -3157,7 +3157,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="2" spans="1:17" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="142" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="142"/>
@@ -3202,7 +3202,7 @@
     <row r="3" spans="1:17" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="80"/>
       <c r="B3" s="144" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="144"/>
       <c r="D3" s="144"/>
@@ -3213,7 +3213,7 @@
       <c r="I3" s="141"/>
       <c r="J3" s="141"/>
       <c r="K3" s="144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L3" s="144"/>
       <c r="M3" s="144"/>
@@ -3236,7 +3236,7 @@
       <c r="I4" s="141"/>
       <c r="J4" s="141"/>
       <c r="K4" s="145" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L4" s="144"/>
       <c r="M4" s="144"/>
@@ -3268,7 +3268,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3298,7 +3298,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3315,7 +3315,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3332,7 +3332,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3371,7 +3371,7 @@
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="84"/>
       <c r="B14" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -3384,7 +3384,7 @@
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="84"/>
       <c r="B15" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -3397,7 +3397,7 @@
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="84"/>
       <c r="B16" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -3527,13 +3527,13 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="K25" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="84"/>
       <c r="K26" s="97" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3557,7 +3557,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="K28" s="133" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3582,7 +3582,7 @@
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
       <c r="K30" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C31" s="26"/>
       <c r="K31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3599,7 +3599,7 @@
         <v>23</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3795,7 +3795,7 @@
         <v>39</v>
       </c>
       <c r="U6" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V6" s="17" t="s">
         <v>1</v>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="161" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="161"/>
       <c r="D18" s="108" t="s">
@@ -4164,7 +4164,7 @@
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="125" t="str">
         <f t="shared" si="2"/>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U21" s="17"/>
       <c r="V21" s="17">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U28" s="38"/>
       <c r="V28" s="38"/>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="S33" s="23"/>
       <c r="T33" s="121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U33" s="36" t="str">
         <f>IFERROR(DEVSQ(Q:Q)*(V34+1),"")</f>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="S34" s="23"/>
       <c r="T34" s="93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U34" s="8" t="str">
         <f>IFERROR(DEVSQ(W7:W11)*(V33+1),"")</f>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="S35" s="23"/>
       <c r="T35" s="93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U35" s="10" t="str">
         <f>IFERROR(U36-U34-U33,"")</f>
@@ -10759,7 +10759,7 @@
     </row>
     <row r="4" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
@@ -10797,7 +10797,7 @@
     </row>
     <row r="6" spans="2:17" s="101" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="110" t="s">
         <v>4</v>
@@ -10816,13 +10816,13 @@
       <c r="I6" s="98"/>
       <c r="J6" s="98"/>
       <c r="K6" s="102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" s="102" t="s">
         <v>52</v>
       </c>
       <c r="M6" s="102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="110" t="s">
         <v>2</v>
@@ -11195,7 +11195,7 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>52</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L30" s="121"/>
       <c r="M30" s="36" t="str">
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="131" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L31" s="93"/>
       <c r="M31" s="8" t="str">
@@ -11904,7 +11904,7 @@
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
       <c r="K32" s="131" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L32" s="93"/>
       <c r="M32" s="10" t="str">

--- a/ARISE/ARISE(D)-Repeated.xlsx
+++ b/ARISE/ARISE(D)-Repeated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EEF3EA8-2202-470F-B48E-AE7C364C3812}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99921CF1-84B3-4810-AAD7-4AF04766FDA6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,19 +338,19 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
-    <t>Version: 2.20200104</t>
-  </si>
-  <si>
     <t>https://cwendorf.github.io/BASE/ARISE</t>
   </si>
   <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -3043,7 +3043,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3099,7 +3099,7 @@
       <c r="I3" s="105"/>
       <c r="J3" s="105"/>
       <c r="K3" s="108" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L3" s="108"/>
       <c r="M3" s="108"/>
@@ -3122,7 +3122,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="105"/>
       <c r="K4" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L4" s="108"/>
       <c r="M4" s="108"/>
@@ -3419,7 +3419,7 @@
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="K26" s="70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3468,7 +3468,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="K30" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="C31" s="20"/>
       <c r="K31" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3485,7 +3485,7 @@
         <v>23</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/ARISE/ARISE(D)-Repeated.xlsx
+++ b/ARISE/ARISE(D)-Repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99921CF1-84B3-4810-AAD7-4AF04766FDA6}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{092A97B7-03D1-4FA6-A3F8-35EBED04426D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -314,9 +314,6 @@
     <t>Factor (Effect)</t>
   </si>
   <si>
-    <t>Wtihin Subjects Error</t>
-  </si>
-  <si>
     <t>ARISE: Arelational and Relational Interval Statistics with Excel</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>ARISE: Arelational and Relational Interval Statistics with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>Within Subjects Error</t>
   </si>
 </sst>
 </file>
@@ -2720,9 +2720,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2760,9 +2760,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2795,26 +2795,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2847,26 +2830,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3042,18 +3008,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="9" max="10" width="4.5546875" customWidth="1"/>
-    <col min="18" max="19" width="4.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="9" max="10" width="4.54296875" customWidth="1"/>
+    <col min="18" max="19" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3063,9 +3029,9 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="106"/>
       <c r="D2" s="106"/>
@@ -3085,7 +3051,7 @@
       <c r="P2" s="107"/>
       <c r="Q2" s="107"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="20"/>
       <c r="B3" s="108" t="s">
         <v>77</v>
@@ -3099,7 +3065,7 @@
       <c r="I3" s="105"/>
       <c r="J3" s="105"/>
       <c r="K3" s="108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L3" s="108"/>
       <c r="M3" s="108"/>
@@ -3108,7 +3074,7 @@
       <c r="P3" s="108"/>
       <c r="Q3" s="108"/>
     </row>
-    <row r="4" spans="1:17" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="62"/>
       <c r="B4" s="108" t="s">
         <v>36</v>
@@ -3122,7 +3088,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="105"/>
       <c r="K4" s="109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L4" s="108"/>
       <c r="M4" s="108"/>
@@ -3131,7 +3097,7 @@
       <c r="P4" s="108"/>
       <c r="Q4" s="108"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -3141,7 +3107,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>65</v>
       </c>
@@ -3157,7 +3123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3170,7 +3136,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
@@ -3187,7 +3153,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>70</v>
@@ -3204,7 +3170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>71</v>
@@ -3221,7 +3187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -3230,7 +3196,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="17" t="s">
         <v>68</v>
@@ -3245,7 +3211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="E13" s="20"/>
@@ -3254,10 +3220,10 @@
       <c r="H13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -3267,10 +3233,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -3280,10 +3246,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3294,9 +3260,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -3308,7 +3274,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -3320,7 +3286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -3328,7 +3294,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="17" t="s">
         <v>56</v>
@@ -3343,7 +3309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -3354,7 +3320,7 @@
       <c r="H21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>34</v>
@@ -3371,7 +3337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>31</v>
@@ -3388,7 +3354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="20" t="s">
         <v>28</v>
       </c>
@@ -3404,7 +3370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -3413,16 +3379,16 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="K25" s="70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="K26" s="70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -3431,7 +3397,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="17" t="s">
         <v>26</v>
@@ -3443,10 +3409,10 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="K28" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -3457,7 +3423,7 @@
       <c r="H29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
         <v>25</v>
       </c>
@@ -3468,27 +3434,27 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="K30" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="20"/>
       <c r="K31" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K33" s="70"/>
     </row>
   </sheetData>
@@ -3522,20 +3488,20 @@
       <selection activeCell="B7" sqref="B7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="9" max="10" width="4.6640625" customWidth="1"/>
-    <col min="11" max="16" width="11.21875" style="24"/>
-    <col min="17" max="17" width="11.21875" style="93"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.21875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="9" max="10" width="4.6328125" customWidth="1"/>
+    <col min="11" max="16" width="11.1796875" style="24"/>
+    <col min="17" max="17" width="11.1796875" style="93"/>
+    <col min="18" max="18" width="4.6328125" customWidth="1"/>
+    <col min="19" max="19" width="4.6328125" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.1796875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6328125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K1" s="43"/>
       <c r="L1" s="49"/>
       <c r="M1" s="49"/>
@@ -3543,7 +3509,7 @@
       <c r="O1" s="43"/>
       <c r="P1" s="43"/>
     </row>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="107" t="s">
         <v>49</v>
       </c>
@@ -3572,7 +3538,7 @@
       <c r="Y2" s="107"/>
       <c r="Z2" s="107"/>
     </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
@@ -3588,7 +3554,7 @@
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>47</v>
       </c>
@@ -3610,7 +3576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3625,7 +3591,7 @@
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="39" t="s">
         <v>44</v>
       </c>
@@ -3680,7 +3646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="116"/>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
@@ -3726,7 +3692,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="117"/>
       <c r="C8" s="117"/>
       <c r="D8" s="117"/>
@@ -3766,7 +3732,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
@@ -3806,7 +3772,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="46" t="s">
         <v>42</v>
       </c>
@@ -3848,7 +3814,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="118"/>
       <c r="C11" s="118"/>
       <c r="D11" s="118"/>
@@ -3888,7 +3854,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="119"/>
       <c r="C12" s="119"/>
       <c r="D12" s="119"/>
@@ -3927,7 +3893,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="119"/>
       <c r="C13" s="119"/>
       <c r="D13" s="119"/>
@@ -3947,7 +3913,7 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
     </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="120"/>
       <c r="C14" s="120"/>
       <c r="D14" s="120"/>
@@ -3963,7 +3929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3976,7 +3942,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
         <v>41</v>
       </c>
@@ -3991,7 +3957,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
@@ -4004,7 +3970,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="123" t="s">
         <v>78</v>
       </c>
@@ -4023,7 +3989,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="121"/>
       <c r="C19" s="122"/>
       <c r="D19" s="124"/>
@@ -4039,7 +4005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="111"/>
       <c r="C20" s="112"/>
       <c r="D20" s="110"/>
@@ -4054,7 +4020,7 @@
       <c r="Y20" s="43"/>
       <c r="Z20" s="42"/>
     </row>
-    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
       <c r="D21" s="110"/>
@@ -4091,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="111"/>
       <c r="C22" s="111"/>
       <c r="D22" s="110"/>
@@ -4128,7 +4094,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="114"/>
       <c r="C23" s="114"/>
       <c r="D23" s="113"/>
@@ -4162,7 +4128,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -4193,7 +4159,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q25" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4214,7 +4180,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q26" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4232,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q27" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4245,7 +4211,7 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q28" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4260,7 +4226,7 @@
       <c r="Y28" s="30"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q29" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4273,7 +4239,7 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q30" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4288,7 +4254,7 @@
       <c r="Y30" s="30"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q31" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4302,7 +4268,7 @@
       <c r="Y31" s="30"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q32" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4330,7 +4296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q33" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4355,7 +4321,7 @@
       <c r="Y33" s="92"/>
       <c r="Z33" s="64"/>
     </row>
-    <row r="34" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q34" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4389,7 +4355,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q35" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4414,7 +4380,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="9"/>
     </row>
-    <row r="36" spans="17:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="17:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q36" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4438,7 +4404,7 @@
       <c r="Y36" s="26"/>
       <c r="Z36" s="19"/>
     </row>
-    <row r="37" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q37" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4451,6079 +4417,6079 @@
       <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
     </row>
-    <row r="38" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q38" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q39" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q40" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q41" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q42" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q43" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q44" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q45" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q46" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q47" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q48" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q49" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q50" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q51" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q52" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q53" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q54" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q55" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q56" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q57" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q58" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q59" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q60" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q61" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q62" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q63" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q64" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q65" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q66" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q67" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q68" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q69" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q70" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q71" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q72" s="93" t="str">
         <f t="shared" ref="Q72:Q135" si="3">IFERROR(AVERAGE(L72:P72),"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q73" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q74" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q75" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q76" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q77" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q78" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q79" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q80" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q81" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q82" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q83" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q84" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q85" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q86" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q87" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q88" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q89" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q90" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q91" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q92" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q93" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q94" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q95" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q96" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q97" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q98" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q99" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q100" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q101" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q102" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q103" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q104" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q105" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q106" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q107" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q108" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q109" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q110" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q111" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q112" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q113" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q114" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q115" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q116" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q117" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q118" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q119" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q120" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q121" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q122" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q123" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q124" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q125" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q126" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q127" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q128" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q129" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q130" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q131" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q132" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q133" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q134" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q135" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q136" s="93" t="str">
         <f t="shared" ref="Q136:Q199" si="4">IFERROR(AVERAGE(L136:P136),"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q137" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q138" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q139" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q140" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q141" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q142" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q143" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q144" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q145" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q146" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q147" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q148" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q149" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q150" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q151" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q152" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q153" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q154" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q155" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q156" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q157" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q158" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q159" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q160" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q161" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q162" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q163" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q164" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q165" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q166" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q167" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q168" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q169" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q170" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q171" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q172" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q173" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q174" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q175" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q176" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q177" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q178" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q179" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q180" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q181" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q182" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q183" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q184" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q185" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q186" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q187" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q188" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q189" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q190" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q191" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q192" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q193" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q194" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q195" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q196" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q197" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q198" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q199" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q200" s="93" t="str">
         <f t="shared" ref="Q200:Q263" si="5">IFERROR(AVERAGE(L200:P200),"")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q201" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q202" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q203" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q204" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q205" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q206" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q207" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q208" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q209" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q210" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q211" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q212" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q213" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q214" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q215" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q216" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q217" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q218" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q219" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q220" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q221" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q222" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q223" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q224" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q225" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q226" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q227" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q228" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q229" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q230" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q231" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q232" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q233" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q234" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q235" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q236" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q237" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q238" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q239" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q240" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q241" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q242" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q243" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q244" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q245" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q246" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q247" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q248" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q249" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q250" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q251" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q252" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q253" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q254" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q255" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q256" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q257" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q258" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q259" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q260" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q261" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q262" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q263" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q264" s="93" t="str">
         <f t="shared" ref="Q264:Q327" si="6">IFERROR(AVERAGE(L264:P264),"")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q265" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q266" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q267" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q268" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q269" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q270" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q271" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q272" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q273" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q274" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q275" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q276" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q277" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q278" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q279" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q280" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q281" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q282" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q283" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q284" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q285" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q286" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q287" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q288" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q289" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q290" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q291" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q292" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q293" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q294" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q295" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q296" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q297" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q298" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q299" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q300" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q301" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q302" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q303" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q304" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q305" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q306" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q307" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q308" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q309" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q310" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q311" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q312" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q313" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q314" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q315" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q316" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q317" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q318" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q319" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q320" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q321" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q322" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q323" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q324" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q325" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q326" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q327" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q328" s="93" t="str">
         <f t="shared" ref="Q328:Q391" si="7">IFERROR(AVERAGE(L328:P328),"")</f>
         <v/>
       </c>
     </row>
-    <row r="329" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q329" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q330" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q331" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q332" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q333" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q334" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q335" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q336" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q337" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q338" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q339" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q340" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q341" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q342" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q343" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q344" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q345" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q346" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q347" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q348" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q349" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q350" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q351" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q352" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q353" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q354" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q355" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q356" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q357" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q358" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q359" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q360" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q361" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q362" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q363" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q364" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q365" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q366" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q367" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q368" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q369" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q370" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q371" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q372" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q373" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q374" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q375" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q376" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q377" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q378" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q379" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q380" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q381" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q382" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q383" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q384" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q385" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q386" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q387" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q388" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q389" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q390" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q391" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q392" s="93" t="str">
         <f t="shared" ref="Q392:Q455" si="8">IFERROR(AVERAGE(L392:P392),"")</f>
         <v/>
       </c>
     </row>
-    <row r="393" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q393" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q394" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q395" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q396" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q397" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q398" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q399" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q400" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q401" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q402" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q403" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q404" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q405" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q406" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q407" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q408" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q409" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q410" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q411" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q412" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q413" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q414" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q415" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q416" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q417" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q418" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q419" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q420" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q421" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q422" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q423" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q424" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q425" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q426" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q427" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q428" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q429" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q430" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q431" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q432" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q433" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q434" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q435" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q436" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q437" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q438" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q439" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q440" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q441" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q442" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q443" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q444" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q445" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q446" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q447" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q448" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q449" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q450" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q451" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q452" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q453" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q454" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q455" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q456" s="93" t="str">
         <f t="shared" ref="Q456:Q519" si="9">IFERROR(AVERAGE(L456:P456),"")</f>
         <v/>
       </c>
     </row>
-    <row r="457" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q457" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q458" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q459" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q460" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q461" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q462" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q463" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q464" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q465" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q466" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q467" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q468" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q469" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q470" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q471" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q472" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q473" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q474" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q475" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q476" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q477" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q478" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q479" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q480" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q481" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q482" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q483" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="484" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q484" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="485" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q485" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="486" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q486" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="487" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q487" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="488" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q488" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="489" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q489" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="490" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q490" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="491" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q491" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="492" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q492" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="493" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q493" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="494" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q494" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="495" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q495" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="496" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q496" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="497" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q497" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="498" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q498" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="499" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q499" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="500" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q500" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="501" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q501" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="502" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q502" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="503" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q503" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="504" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q504" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="505" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q505" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="506" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q506" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="507" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q507" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="508" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q508" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="509" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q509" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="510" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q510" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="511" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q511" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="512" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q512" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="513" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q513" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="514" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q514" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="515" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q515" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="516" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q516" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="517" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q517" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="518" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q518" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="519" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q519" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="520" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q520" s="93" t="str">
         <f t="shared" ref="Q520:Q583" si="10">IFERROR(AVERAGE(L520:P520),"")</f>
         <v/>
       </c>
     </row>
-    <row r="521" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q521" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="522" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q522" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="523" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q523" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="524" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q524" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="525" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q525" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="526" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q526" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="527" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q527" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="528" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q528" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="529" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q529" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="530" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q530" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="531" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q531" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="532" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q532" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="533" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q533" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="534" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q534" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="535" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q535" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="536" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q536" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="537" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q537" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="538" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q538" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="539" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q539" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="540" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q540" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="541" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q541" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="542" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q542" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="543" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q543" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="544" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q544" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="545" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q545" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="546" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q546" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="547" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q547" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="548" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q548" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="549" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q549" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="550" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q550" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="551" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q551" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="552" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q552" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="553" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q553" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="554" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q554" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="555" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q555" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="556" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q556" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="557" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q557" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="558" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q558" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="559" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q559" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="560" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q560" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="561" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q561" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="562" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q562" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="563" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q563" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="564" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q564" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="565" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q565" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="566" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q566" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="567" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q567" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="568" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q568" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="569" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q569" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="570" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q570" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="571" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q571" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="572" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q572" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="573" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q573" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="574" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q574" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="575" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q575" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="576" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q576" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="577" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q577" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="578" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q578" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="579" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q579" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="580" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q580" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="581" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q581" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="582" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q582" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="583" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q583" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="584" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q584" s="93" t="str">
         <f t="shared" ref="Q584:Q647" si="11">IFERROR(AVERAGE(L584:P584),"")</f>
         <v/>
       </c>
     </row>
-    <row r="585" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q585" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="586" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q586" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="587" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q587" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="588" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q588" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="589" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q589" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="590" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q590" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="591" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q591" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="592" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q592" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="593" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q593" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="594" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q594" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="595" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q595" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="596" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q596" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="597" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q597" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="598" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q598" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="599" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q599" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="600" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q600" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="601" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q601" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="602" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q602" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="603" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q603" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="604" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q604" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="605" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q605" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="606" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q606" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="607" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q607" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="608" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q608" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="609" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q609" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="610" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q610" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="611" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q611" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="612" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q612" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="613" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q613" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="614" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q614" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="615" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q615" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="616" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q616" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="617" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q617" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="618" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q618" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="619" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q619" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="620" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q620" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="621" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q621" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="622" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q622" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="623" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q623" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="624" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q624" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="625" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q625" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="626" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q626" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="627" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q627" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="628" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q628" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="629" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q629" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="630" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q630" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="631" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q631" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="632" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q632" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="633" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q633" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="634" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q634" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="635" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q635" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="636" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q636" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="637" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q637" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="638" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q638" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="639" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q639" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="640" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q640" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="641" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q641" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="642" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q642" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="643" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q643" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="644" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q644" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="645" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q645" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="646" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q646" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="647" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q647" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="648" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q648" s="93" t="str">
         <f t="shared" ref="Q648:Q711" si="12">IFERROR(AVERAGE(L648:P648),"")</f>
         <v/>
       </c>
     </row>
-    <row r="649" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q649" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="650" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q650" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="651" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q651" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="652" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q652" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="653" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q653" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="654" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q654" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="655" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q655" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="656" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q656" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="657" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q657" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="658" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q658" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="659" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q659" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="660" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q660" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="661" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q661" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="662" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q662" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="663" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q663" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="664" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q664" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="665" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q665" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="666" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q666" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="667" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q667" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="668" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q668" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="669" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q669" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="670" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q670" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="671" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q671" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="672" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q672" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="673" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q673" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="674" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q674" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="675" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q675" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="676" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q676" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="677" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q677" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="678" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q678" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="679" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q679" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="680" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q680" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="681" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q681" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="682" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q682" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="683" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q683" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="684" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q684" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="685" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q685" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="686" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q686" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="687" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q687" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="688" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q688" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="689" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q689" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="690" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q690" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="691" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q691" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="692" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q692" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="693" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q693" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="694" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q694" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="695" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q695" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="696" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q696" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="697" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q697" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="698" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q698" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="699" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q699" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="700" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q700" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="701" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q701" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="702" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q702" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="703" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q703" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="704" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q704" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="705" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q705" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="706" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q706" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="707" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q707" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="708" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q708" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="709" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q709" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="710" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q710" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="711" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q711" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="712" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q712" s="93" t="str">
         <f t="shared" ref="Q712:Q775" si="13">IFERROR(AVERAGE(L712:P712),"")</f>
         <v/>
       </c>
     </row>
-    <row r="713" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q713" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="714" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q714" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="715" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q715" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="716" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q716" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="717" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q717" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="718" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q718" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="719" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q719" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="720" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q720" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="721" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q721" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="722" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q722" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="723" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q723" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="724" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q724" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="725" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q725" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="726" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q726" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="727" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q727" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="728" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q728" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="729" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q729" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="730" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q730" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="731" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q731" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="732" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q732" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="733" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q733" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="734" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q734" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="735" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q735" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="736" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q736" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="737" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q737" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="738" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q738" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="739" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q739" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="740" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q740" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="741" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q741" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="742" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q742" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="743" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q743" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="744" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q744" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="745" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q745" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="746" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q746" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="747" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q747" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="748" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q748" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="749" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q749" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="750" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q750" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="751" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q751" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="752" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q752" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="753" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q753" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="754" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q754" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="755" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q755" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="756" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q756" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="757" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q757" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="758" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q758" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="759" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q759" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="760" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q760" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="761" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q761" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="762" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q762" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="763" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q763" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="764" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q764" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="765" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q765" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="766" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q766" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="767" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q767" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="768" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q768" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="769" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q769" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="770" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q770" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="771" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q771" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="772" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q772" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="773" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q773" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="774" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q774" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="775" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q775" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="776" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q776" s="93" t="str">
         <f t="shared" ref="Q776:Q839" si="14">IFERROR(AVERAGE(L776:P776),"")</f>
         <v/>
       </c>
     </row>
-    <row r="777" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q777" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="778" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q778" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="779" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q779" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="780" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q780" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="781" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q781" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="782" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q782" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="783" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q783" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="784" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q784" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="785" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q785" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="786" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q786" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="787" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q787" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="788" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q788" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="789" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q789" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="790" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q790" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="791" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q791" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="792" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q792" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="793" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q793" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="794" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q794" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="795" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q795" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="796" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q796" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="797" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q797" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="798" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q798" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="799" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q799" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="800" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q800" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="801" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q801" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="802" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q802" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="803" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q803" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="804" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q804" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="805" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q805" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="806" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q806" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="807" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q807" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="808" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q808" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="809" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q809" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="810" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q810" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="811" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q811" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="812" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q812" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="813" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q813" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="814" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q814" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="815" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q815" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="816" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q816" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="817" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q817" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="818" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q818" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="819" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q819" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="820" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q820" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="821" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q821" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="822" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q822" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="823" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q823" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="824" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q824" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="825" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q825" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="826" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q826" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="827" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q827" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="828" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q828" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="829" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q829" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="830" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q830" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="831" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q831" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="832" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q832" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="833" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q833" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="834" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q834" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="835" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q835" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="836" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q836" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="837" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q837" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="838" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q838" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="839" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q839" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="840" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q840" s="93" t="str">
         <f t="shared" ref="Q840:Q903" si="15">IFERROR(AVERAGE(L840:P840),"")</f>
         <v/>
       </c>
     </row>
-    <row r="841" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q841" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="842" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q842" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="843" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q843" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="844" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q844" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="845" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q845" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="846" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q846" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="847" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q847" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="848" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q848" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="849" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q849" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="850" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q850" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="851" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q851" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="852" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q852" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="853" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q853" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="854" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q854" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="855" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q855" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="856" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q856" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="857" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q857" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="858" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q858" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="859" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q859" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="860" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q860" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="861" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q861" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="862" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q862" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="863" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q863" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="864" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q864" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="865" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q865" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="866" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q866" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="867" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q867" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="868" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q868" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="869" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q869" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="870" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q870" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="871" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q871" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="872" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q872" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="873" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q873" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="874" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q874" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="875" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q875" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="876" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q876" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="877" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q877" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="878" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q878" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="879" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q879" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="880" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q880" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="881" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q881" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="882" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q882" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="883" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q883" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="884" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q884" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="885" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q885" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="886" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q886" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="887" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q887" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="888" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q888" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="889" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q889" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="890" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q890" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="891" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q891" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="892" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q892" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="893" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q893" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="894" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q894" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="895" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q895" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="896" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q896" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="897" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q897" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="898" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q898" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="899" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q899" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="900" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q900" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="901" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q901" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="902" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q902" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="903" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q903" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="904" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q904" s="93" t="str">
         <f t="shared" ref="Q904:Q967" si="16">IFERROR(AVERAGE(L904:P904),"")</f>
         <v/>
       </c>
     </row>
-    <row r="905" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q905" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="906" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q906" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="907" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q907" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="908" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q908" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="909" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q909" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="910" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q910" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="911" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q911" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="912" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q912" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="913" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q913" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="914" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q914" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="915" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q915" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="916" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q916" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="917" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q917" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="918" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q918" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="919" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q919" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="920" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q920" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="921" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q921" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="922" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q922" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="923" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q923" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="924" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q924" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="925" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q925" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="926" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q926" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="927" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q927" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="928" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q928" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="929" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q929" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="930" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q930" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="931" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q931" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="932" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q932" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="933" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q933" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="934" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q934" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="935" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q935" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="936" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q936" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="937" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q937" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="938" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q938" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="939" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q939" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="940" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q940" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="941" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q941" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="942" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q942" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="943" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q943" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="944" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q944" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="945" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q945" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="946" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q946" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="947" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q947" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="948" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q948" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="949" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q949" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="950" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q950" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="951" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q951" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="952" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q952" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="953" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q953" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="954" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q954" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="955" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q955" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="956" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q956" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="957" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q957" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="958" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q958" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="959" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q959" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="960" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q960" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="961" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q961" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="962" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q962" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="963" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q963" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="964" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q964" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="965" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q965" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="966" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q966" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="967" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q967" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="968" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q968" s="93" t="str">
         <f t="shared" ref="Q968:Q1031" si="17">IFERROR(AVERAGE(L968:P968),"")</f>
         <v/>
       </c>
     </row>
-    <row r="969" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q969" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="970" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q970" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="971" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q971" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="972" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q972" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="973" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q973" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="974" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q974" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="975" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q975" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="976" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q976" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="977" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q977" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="978" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q978" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="979" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q979" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="980" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q980" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="981" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q981" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="982" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q982" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="983" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q983" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="984" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q984" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="985" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q985" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="986" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q986" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="987" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q987" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="988" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q988" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="989" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q989" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="990" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q990" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="991" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q991" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="992" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q992" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="993" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q993" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="994" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q994" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="995" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q995" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="996" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q996" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="997" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q997" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="998" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q998" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="999" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q999" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1000" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1000" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1001" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1001" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1002" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1002" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1003" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1003" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1004" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1004" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1005" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1005" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1006" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1006" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1007" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1007" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1008" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1008" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1009" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1009" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1009" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1010" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1010" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1010" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1011" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1011" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1011" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1012" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1012" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1012" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1013" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1013" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1013" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1014" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1014" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1014" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1015" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1015" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1015" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1016" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1016" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1016" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1017" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1017" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1017" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1018" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1018" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1018" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1019" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1019" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1019" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1020" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1020" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1020" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1021" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1021" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1021" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1022" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1022" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1022" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1023" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1023" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1023" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1024" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1024" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1024" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1025" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1025" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1025" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1026" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1026" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1026" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1027" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1027" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1027" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1028" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1028" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1028" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1029" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1029" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1029" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1030" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1030" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1030" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1031" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1031" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1031" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1032" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1032" s="93" t="str">
         <f t="shared" ref="Q1032:Q1050" si="18">IFERROR(AVERAGE(L1032:P1032),"")</f>
         <v/>
       </c>
     </row>
-    <row r="1033" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1033" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1033" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1034" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1034" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1034" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1035" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1035" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1035" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1036" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1036" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1036" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1037" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1037" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1037" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1038" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1038" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1038" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1039" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1039" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1039" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1040" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1040" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1040" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1041" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1041" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1041" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1042" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1042" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1042" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1043" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1043" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1043" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1044" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1044" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1044" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1045" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1045" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1046" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1046" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1046" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1047" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1047" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1047" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1048" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1048" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1048" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1049" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1049" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1049" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1050" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1050" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q1050" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -10562,21 +10528,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="71" customWidth="1"/>
-    <col min="2" max="8" width="11.109375" style="71"/>
-    <col min="9" max="10" width="4.5546875" style="71" customWidth="1"/>
-    <col min="11" max="17" width="11.109375" style="71"/>
-    <col min="18" max="19" width="4.5546875" style="71" customWidth="1"/>
-    <col min="20" max="16384" width="11.109375" style="71"/>
+    <col min="1" max="1" width="4.54296875" style="71" customWidth="1"/>
+    <col min="2" max="8" width="11.08984375" style="71"/>
+    <col min="9" max="10" width="4.54296875" style="71" customWidth="1"/>
+    <col min="11" max="17" width="11.08984375" style="71"/>
+    <col min="18" max="19" width="4.54296875" style="71" customWidth="1"/>
+    <col min="20" max="16384" width="11.08984375" style="71"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="107" t="s">
         <v>72</v>
       </c>
@@ -10596,7 +10562,7 @@
       <c r="P2" s="107"/>
       <c r="Q2" s="107"/>
     </row>
-    <row r="4" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="72" t="s">
         <v>85</v>
       </c>
@@ -10621,7 +10587,7 @@
       <c r="P4" s="71"/>
       <c r="Q4" s="71"/>
     </row>
-    <row r="5" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
       <c r="D5" s="71"/>
@@ -10634,7 +10600,7 @@
       <c r="P5" s="71"/>
       <c r="Q5" s="71"/>
     </row>
-    <row r="6" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="82" t="s">
         <v>78</v>
       </c>
@@ -10676,7 +10642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="102" t="str">
         <f>IF(C7="","",IF(Data!B19="","1",Data!B19))</f>
         <v/>
@@ -10733,7 +10699,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="103" t="str">
         <f>IF(C8="","",IF(Data!B20="","2",Data!B20))</f>
         <v/>
@@ -10790,7 +10756,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="103" t="str">
         <f>IF(C9="","",IF(Data!B21="","3",Data!B21))</f>
         <v/>
@@ -10847,7 +10813,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="103" t="str">
         <f>IF(C10="","",IF(Data!B22="","4",Data!B22))</f>
         <v/>
@@ -10904,7 +10870,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="104" t="str">
         <f>IF(C11="","",IF(Data!B23="","5",Data!B23))</f>
         <v/>
@@ -10961,7 +10927,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -10979,7 +10945,7 @@
       <c r="P12" s="71"/>
       <c r="Q12" s="71"/>
     </row>
-    <row r="13" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="72" t="s">
         <v>67</v>
       </c>
@@ -11001,7 +10967,7 @@
       <c r="P13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -11019,7 +10985,7 @@
       <c r="P14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
@@ -11055,7 +11021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
         <v>0</v>
       </c>
@@ -11105,7 +11071,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>1.1499999999999999</v>
       </c>
@@ -11154,7 +11120,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>1.1499999999999999</v>
       </c>
@@ -11203,7 +11169,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>1.1499999999999999</v>
       </c>
@@ -11250,7 +11216,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>2.15</v>
       </c>
@@ -11297,7 +11263,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>2.15</v>
       </c>
@@ -11344,7 +11310,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>2.15</v>
       </c>
@@ -11391,7 +11357,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>3.15</v>
       </c>
@@ -11438,7 +11404,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>3.15</v>
       </c>
@@ -11485,7 +11451,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="4">
         <v>3.15</v>
       </c>
@@ -11532,7 +11498,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -11561,7 +11527,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>4.1500000000000004</v>
       </c>
@@ -11586,7 +11552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
         <v>4.1500000000000004</v>
       </c>
@@ -11608,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
         <v>5.15</v>
       </c>
@@ -11653,7 +11619,7 @@
         <v>p</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>5.15</v>
       </c>
@@ -11692,7 +11658,7 @@
       <c r="P30" s="92"/>
       <c r="Q30" s="92"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31" s="3">
         <v>5.15</v>
@@ -11738,12 +11704,12 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="K32" s="99" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="L32" s="65"/>
       <c r="M32" s="7" t="str">
@@ -11761,7 +11727,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="K33" s="100" t="s">
         <v>14</v>
@@ -11782,7 +11748,7 @@
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -11791,7 +11757,7 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="17"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -11800,7 +11766,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -11809,7 +11775,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -11818,7 +11784,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -11827,7 +11793,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -11836,7 +11802,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
@@ -11845,7 +11811,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -11854,7 +11820,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -11863,7 +11829,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
@@ -11872,7 +11838,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -11881,7 +11847,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -11890,7 +11856,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -11899,7 +11865,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -11908,7 +11874,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -11917,7 +11883,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
@@ -11926,7 +11892,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -11935,7 +11901,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -11944,7 +11910,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -11953,7 +11919,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -11962,7 +11928,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -11971,7 +11937,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="12"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -11980,7 +11946,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -11989,7 +11955,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -11998,7 +11964,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -12007,7 +11973,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -12016,7 +11982,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -12025,7 +11991,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -12034,7 +12000,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -12043,7 +12009,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -12052,7 +12018,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -12061,7 +12027,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -12070,7 +12036,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -12079,7 +12045,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -12088,7 +12054,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -12097,7 +12063,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -12106,7 +12072,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -12115,7 +12081,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -12124,7 +12090,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -12133,7 +12099,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -12142,7 +12108,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>

--- a/ARISE/ARISE(D)-Repeated.xlsx
+++ b/ARISE/ARISE(D)-Repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/ARISE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{092A97B7-03D1-4FA6-A3F8-35EBED04426D}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA1531C-8237-4EC6-8939-7F39FC1B4484}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -3008,18 +3008,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="9" max="10" width="4.54296875" customWidth="1"/>
-    <col min="18" max="19" width="4.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="9" max="10" width="4.5546875" customWidth="1"/>
+    <col min="18" max="19" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3029,7 +3029,7 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="106" t="s">
         <v>89</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="P2" s="107"/>
       <c r="Q2" s="107"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="108" t="s">
         <v>77</v>
@@ -3074,7 +3074,7 @@
       <c r="P3" s="108"/>
       <c r="Q3" s="108"/>
     </row>
-    <row r="4" spans="1:17" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="62"/>
       <c r="B4" s="108" t="s">
         <v>36</v>
@@ -3097,7 +3097,7 @@
       <c r="P4" s="108"/>
       <c r="Q4" s="108"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -3107,7 +3107,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>65</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3136,7 +3136,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
@@ -3153,7 +3153,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>70</v>
@@ -3170,7 +3170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>71</v>
@@ -3187,7 +3187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -3196,7 +3196,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="17" t="s">
         <v>68</v>
@@ -3211,7 +3211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="E13" s="20"/>
@@ -3220,7 +3220,7 @@
       <c r="H13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>92</v>
@@ -3233,7 +3233,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>90</v>
@@ -3246,7 +3246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>91</v>
@@ -3260,7 +3260,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
         <v>93</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -3286,7 +3286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -3294,7 +3294,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="17" t="s">
         <v>56</v>
@@ -3309,7 +3309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -3320,7 +3320,7 @@
       <c r="H21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>34</v>
@@ -3337,7 +3337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>31</v>
@@ -3354,7 +3354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
         <v>28</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -3382,13 +3382,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="K26" s="70" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -3397,7 +3397,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="17" t="s">
         <v>26</v>
@@ -3412,7 +3412,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -3423,7 +3423,7 @@
       <c r="H29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
         <v>25</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
         <v>24</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
         <v>23</v>
       </c>
@@ -3454,11 +3454,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K33" s="70"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -3488,20 +3488,20 @@
       <selection activeCell="B7" sqref="B7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="9" max="10" width="4.6328125" customWidth="1"/>
-    <col min="11" max="16" width="11.1796875" style="24"/>
-    <col min="17" max="17" width="11.1796875" style="93"/>
-    <col min="18" max="18" width="4.6328125" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.1796875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6328125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="9" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="16" width="11.21875" style="24"/>
+    <col min="17" max="17" width="11.21875" style="93"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.21875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K1" s="43"/>
       <c r="L1" s="49"/>
       <c r="M1" s="49"/>
@@ -3509,7 +3509,7 @@
       <c r="O1" s="43"/>
       <c r="P1" s="43"/>
     </row>
-    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="107" t="s">
         <v>49</v>
       </c>
@@ -3538,7 +3538,7 @@
       <c r="Y2" s="107"/>
       <c r="Z2" s="107"/>
     </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
@@ -3554,7 +3554,7 @@
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>47</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3591,7 +3591,7 @@
       <c r="O5" s="43"/>
       <c r="P5" s="43"/>
     </row>
-    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="39" t="s">
         <v>44</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="116"/>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
@@ -3692,7 +3692,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="117"/>
       <c r="C8" s="117"/>
       <c r="D8" s="117"/>
@@ -3732,7 +3732,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
@@ -3772,7 +3772,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="46" t="s">
         <v>42</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="118"/>
       <c r="C11" s="118"/>
       <c r="D11" s="118"/>
@@ -3854,7 +3854,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="119"/>
       <c r="C12" s="119"/>
       <c r="D12" s="119"/>
@@ -3893,7 +3893,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="119"/>
       <c r="C13" s="119"/>
       <c r="D13" s="119"/>
@@ -3913,7 +3913,7 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
     </row>
-    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="120"/>
       <c r="C14" s="120"/>
       <c r="D14" s="120"/>
@@ -3929,7 +3929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3942,7 +3942,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>41</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
@@ -3970,7 +3970,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="123" t="s">
         <v>78</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="121"/>
       <c r="C19" s="122"/>
       <c r="D19" s="124"/>
@@ -4005,7 +4005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="111"/>
       <c r="C20" s="112"/>
       <c r="D20" s="110"/>
@@ -4020,7 +4020,7 @@
       <c r="Y20" s="43"/>
       <c r="Z20" s="42"/>
     </row>
-    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
       <c r="D21" s="110"/>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="111"/>
       <c r="C22" s="111"/>
       <c r="D22" s="110"/>
@@ -4094,7 +4094,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="114"/>
       <c r="C23" s="114"/>
       <c r="D23" s="113"/>
@@ -4128,7 +4128,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -4159,7 +4159,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q25" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4180,7 +4180,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q26" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q27" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4211,7 +4211,7 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4226,7 +4226,7 @@
       <c r="Y28" s="30"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q29" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4239,7 +4239,7 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q30" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4254,7 +4254,7 @@
       <c r="Y30" s="30"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q31" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4268,7 +4268,7 @@
       <c r="Y31" s="30"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q32" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4296,7 +4296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q33" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4321,7 +4321,7 @@
       <c r="Y33" s="92"/>
       <c r="Z33" s="64"/>
     </row>
-    <row r="34" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q34" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4355,7 +4355,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q35" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4380,7 +4380,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="9"/>
     </row>
-    <row r="36" spans="17:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="17:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q36" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4404,7 +4404,7 @@
       <c r="Y36" s="26"/>
       <c r="Z36" s="19"/>
     </row>
-    <row r="37" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q37" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4417,6079 +4417,6079 @@
       <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
     </row>
-    <row r="38" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q38" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q39" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q40" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q41" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q42" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q43" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q44" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q45" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q46" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q47" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="17:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q48" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q49" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q50" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q51" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q52" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q53" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q54" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q55" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q56" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q57" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q58" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q59" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q60" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q61" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q62" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q63" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q64" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q65" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q66" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q67" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q68" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q69" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q70" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q71" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q72" s="93" t="str">
         <f t="shared" ref="Q72:Q135" si="3">IFERROR(AVERAGE(L72:P72),"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q73" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q74" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q75" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q76" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q77" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q78" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q79" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q80" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q81" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q82" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q83" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q84" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q85" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q86" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q87" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q88" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q89" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q90" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q91" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q92" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q93" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q94" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q95" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q96" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q97" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q98" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q99" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q100" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q101" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q102" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q103" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q104" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q105" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q106" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q107" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q108" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q109" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q110" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q111" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q112" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q113" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q114" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q115" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q116" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q117" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q118" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q119" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q120" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q121" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q122" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q123" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q124" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q125" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q126" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q127" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q128" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q129" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q130" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q131" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q132" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q133" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q134" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q135" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q136" s="93" t="str">
         <f t="shared" ref="Q136:Q199" si="4">IFERROR(AVERAGE(L136:P136),"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q137" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q138" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q139" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q140" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q141" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q142" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q143" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q144" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q145" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q146" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q147" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q148" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q149" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q150" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q151" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q152" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q153" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q154" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q155" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q156" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q157" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q158" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q159" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q160" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q161" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q162" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q163" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q164" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q165" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q166" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q167" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q168" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q169" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q170" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q171" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q172" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q173" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q174" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q175" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q176" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q177" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q178" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q179" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q180" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q181" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q182" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q183" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q184" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q185" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q186" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q187" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q188" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q189" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q190" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q191" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q192" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q193" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q194" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q195" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q196" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q197" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q198" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q199" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q200" s="93" t="str">
         <f t="shared" ref="Q200:Q263" si="5">IFERROR(AVERAGE(L200:P200),"")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q201" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q202" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q203" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q204" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q205" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q206" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q207" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q208" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q209" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q210" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q211" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q212" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q213" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q214" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q215" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q216" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q217" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q218" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q219" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q220" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q221" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q222" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q223" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q224" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q225" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q226" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q227" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q228" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q229" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q230" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q231" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q232" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q233" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q234" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q235" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q236" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q237" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q238" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q239" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q240" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q241" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q242" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q243" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q244" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q245" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q246" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q247" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q248" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q249" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q250" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q251" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q252" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q253" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q254" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q255" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q256" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q257" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q258" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q259" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q260" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q261" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q262" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q263" s="93" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q264" s="93" t="str">
         <f t="shared" ref="Q264:Q327" si="6">IFERROR(AVERAGE(L264:P264),"")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q265" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q266" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q267" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q268" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q269" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q270" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q271" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q272" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q273" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q274" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q275" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q276" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q277" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q278" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q279" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q280" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q281" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q282" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q283" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q284" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q285" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q286" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q287" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q288" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q289" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q290" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q291" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q292" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q293" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q294" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q295" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q296" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q297" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q298" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q299" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q300" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q301" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q302" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q303" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q304" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q305" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q306" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q307" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q308" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q309" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q310" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q311" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q312" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q313" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q314" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q315" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q316" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q317" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q318" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q319" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q320" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q321" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q322" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q323" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q324" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q325" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q326" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q327" s="93" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q328" s="93" t="str">
         <f t="shared" ref="Q328:Q391" si="7">IFERROR(AVERAGE(L328:P328),"")</f>
         <v/>
       </c>
     </row>
-    <row r="329" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q329" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q330" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q331" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q332" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q333" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q334" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q335" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q336" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q337" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q338" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q339" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q340" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q341" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q342" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q343" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q344" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q345" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q346" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q347" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q348" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q349" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q350" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q351" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q352" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q353" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q354" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q355" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q356" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q357" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q358" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q359" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q360" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q361" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q362" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q363" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q364" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q365" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q366" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q367" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q368" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q369" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q370" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q371" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q372" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q373" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q374" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q375" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q376" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q377" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q378" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q379" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q380" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q381" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q382" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q383" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q384" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q385" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q386" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q387" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q388" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q389" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q390" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q391" s="93" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q392" s="93" t="str">
         <f t="shared" ref="Q392:Q455" si="8">IFERROR(AVERAGE(L392:P392),"")</f>
         <v/>
       </c>
     </row>
-    <row r="393" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q393" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q394" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q395" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q396" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q397" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q398" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q399" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q400" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q401" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q402" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q403" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q404" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q405" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q406" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q407" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q408" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q409" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q410" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q411" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q412" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q413" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q414" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q415" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q416" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q417" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q418" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q419" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q420" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q421" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q422" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q423" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q424" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q425" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q426" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q427" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q428" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q429" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q430" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q431" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q432" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q433" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q434" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q435" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q436" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q437" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q438" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q439" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q440" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q441" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q442" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q443" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q444" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q445" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q446" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q447" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q448" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q449" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q450" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q451" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q452" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q453" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q454" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q455" s="93" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q456" s="93" t="str">
         <f t="shared" ref="Q456:Q519" si="9">IFERROR(AVERAGE(L456:P456),"")</f>
         <v/>
       </c>
     </row>
-    <row r="457" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q457" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q458" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q459" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q460" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q461" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q462" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q463" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q464" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q465" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q466" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q467" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q468" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q469" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q470" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q471" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q472" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q473" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q474" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q475" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q476" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q477" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q478" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q479" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q480" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q481" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q482" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q483" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="484" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q484" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="485" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q485" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="486" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q486" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="487" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q487" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="488" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q488" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="489" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q489" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="490" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q490" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="491" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q491" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="492" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q492" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="493" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q493" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="494" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q494" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="495" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q495" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="496" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q496" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="497" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q497" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="498" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q498" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="499" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q499" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="500" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q500" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="501" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q501" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="502" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q502" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="503" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q503" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="504" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q504" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="505" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q505" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="506" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q506" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="507" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q507" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="508" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q508" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="509" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q509" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="510" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q510" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="511" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q511" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="512" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q512" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="513" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q513" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="514" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q514" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="515" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q515" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="516" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q516" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="517" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q517" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="518" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q518" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="519" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q519" s="93" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="520" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q520" s="93" t="str">
         <f t="shared" ref="Q520:Q583" si="10">IFERROR(AVERAGE(L520:P520),"")</f>
         <v/>
       </c>
     </row>
-    <row r="521" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q521" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="522" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q522" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="523" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q523" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="524" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q524" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="525" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q525" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="526" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q526" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="527" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q527" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="528" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q528" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="529" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q529" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="530" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q530" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="531" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q531" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="532" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q532" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="533" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q533" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="534" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q534" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="535" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q535" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="536" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q536" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="537" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q537" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="538" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q538" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="539" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q539" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="540" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q540" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="541" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q541" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="542" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q542" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="543" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q543" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="544" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q544" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="545" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q545" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="546" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q546" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="547" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q547" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="548" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q548" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="549" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q549" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="550" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q550" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="551" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q551" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="552" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q552" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="553" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q553" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="554" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q554" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="555" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q555" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="556" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q556" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="557" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q557" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="558" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q558" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="559" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q559" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="560" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q560" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="561" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q561" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="562" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q562" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="563" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q563" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="564" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q564" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="565" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q565" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="566" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q566" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="567" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q567" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="568" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q568" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="569" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q569" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="570" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q570" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="571" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q571" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="572" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q572" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="573" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q573" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="574" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q574" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="575" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q575" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="576" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q576" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="577" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q577" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="578" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q578" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="579" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q579" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="580" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q580" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="581" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q581" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="582" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q582" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="583" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q583" s="93" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="584" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q584" s="93" t="str">
         <f t="shared" ref="Q584:Q647" si="11">IFERROR(AVERAGE(L584:P584),"")</f>
         <v/>
       </c>
     </row>
-    <row r="585" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q585" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="586" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q586" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="587" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q587" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="588" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q588" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="589" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q589" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="590" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q590" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="591" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q591" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="592" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q592" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="593" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q593" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="594" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q594" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="595" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q595" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="596" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q596" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="597" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q597" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="598" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q598" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="599" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q599" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="600" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q600" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="601" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q601" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="602" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q602" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="603" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q603" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="604" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q604" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="605" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q605" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="606" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q606" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="607" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q607" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="608" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q608" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="609" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q609" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="610" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q610" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="611" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q611" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="612" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q612" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="613" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q613" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="614" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q614" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="615" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q615" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="616" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q616" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="617" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q617" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="618" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q618" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="619" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q619" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="620" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q620" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="621" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q621" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="622" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q622" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="623" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q623" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="624" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q624" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="625" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q625" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="626" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q626" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="627" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q627" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="628" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q628" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="629" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q629" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="630" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q630" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="631" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q631" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="632" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q632" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="633" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q633" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="634" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q634" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="635" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q635" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="636" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q636" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="637" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q637" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="638" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q638" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="639" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q639" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="640" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q640" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="641" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q641" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="642" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q642" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="643" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q643" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="644" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q644" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="645" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q645" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="646" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q646" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="647" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q647" s="93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="648" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q648" s="93" t="str">
         <f t="shared" ref="Q648:Q711" si="12">IFERROR(AVERAGE(L648:P648),"")</f>
         <v/>
       </c>
     </row>
-    <row r="649" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q649" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="650" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q650" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="651" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q651" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="652" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q652" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="653" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q653" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="654" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q654" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="655" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q655" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="656" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q656" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="657" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q657" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="658" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q658" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="659" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q659" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="660" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q660" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="661" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q661" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="662" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q662" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="663" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q663" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="664" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q664" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="665" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q665" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="666" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q666" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="667" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q667" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="668" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q668" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="669" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q669" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="670" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q670" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="671" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q671" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="672" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q672" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="673" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q673" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="674" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q674" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="675" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q675" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="676" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q676" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="677" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q677" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="678" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q678" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="679" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q679" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="680" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q680" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="681" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q681" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="682" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q682" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="683" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q683" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="684" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q684" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="685" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q685" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="686" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q686" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="687" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q687" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="688" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q688" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="689" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q689" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="690" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q690" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="691" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q691" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="692" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q692" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="693" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q693" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="694" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q694" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="695" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q695" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="696" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q696" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="697" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q697" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="698" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q698" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="699" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q699" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="700" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q700" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="701" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q701" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="702" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q702" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="703" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q703" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="704" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q704" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="705" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q705" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="706" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q706" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="707" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q707" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="708" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q708" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="709" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q709" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="710" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q710" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="711" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q711" s="93" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="712" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q712" s="93" t="str">
         <f t="shared" ref="Q712:Q775" si="13">IFERROR(AVERAGE(L712:P712),"")</f>
         <v/>
       </c>
     </row>
-    <row r="713" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q713" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="714" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q714" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="715" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q715" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="716" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q716" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="717" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q717" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="718" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q718" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="719" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q719" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="720" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q720" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="721" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q721" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="722" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q722" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="723" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q723" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="724" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q724" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="725" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q725" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="726" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q726" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="727" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q727" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="728" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q728" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="729" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q729" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="730" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q730" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="731" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q731" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="732" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q732" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="733" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q733" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="734" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q734" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="735" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q735" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="736" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q736" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="737" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q737" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="738" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q738" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="739" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q739" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="740" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q740" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="741" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q741" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="742" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q742" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="743" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q743" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="744" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q744" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="745" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q745" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="746" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q746" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="747" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q747" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="748" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q748" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="749" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q749" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="750" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q750" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="751" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q751" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="752" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q752" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="753" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q753" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="754" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q754" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="755" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q755" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="756" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q756" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="757" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q757" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="758" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q758" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="759" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q759" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="760" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q760" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="761" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q761" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="762" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q762" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="763" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q763" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="764" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q764" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="765" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q765" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="766" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q766" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="767" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q767" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="768" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q768" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="769" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q769" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="770" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q770" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="771" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q771" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="772" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q772" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="773" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q773" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="774" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q774" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="775" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q775" s="93" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="776" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q776" s="93" t="str">
         <f t="shared" ref="Q776:Q839" si="14">IFERROR(AVERAGE(L776:P776),"")</f>
         <v/>
       </c>
     </row>
-    <row r="777" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q777" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="778" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q778" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="779" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q779" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="780" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q780" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="781" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q781" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="782" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q782" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="783" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q783" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="784" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q784" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="785" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q785" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="786" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q786" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="787" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q787" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="788" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q788" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="789" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q789" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="790" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q790" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="791" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q791" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="792" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q792" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="793" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q793" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="794" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q794" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="795" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q795" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="796" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q796" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="797" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q797" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="798" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q798" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="799" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q799" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="800" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q800" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="801" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q801" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="802" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q802" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="803" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q803" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="804" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q804" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="805" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q805" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="806" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q806" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="807" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q807" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="808" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q808" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="809" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q809" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="810" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q810" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="811" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q811" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="812" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q812" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="813" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q813" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="814" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q814" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="815" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q815" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="816" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q816" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="817" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q817" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="818" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q818" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="819" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q819" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="820" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q820" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="821" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q821" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="822" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q822" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="823" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q823" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="824" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q824" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="825" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q825" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="826" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q826" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="827" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q827" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="828" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q828" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="829" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q829" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="830" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q830" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="831" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q831" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="832" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q832" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="833" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q833" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="834" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q834" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="835" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q835" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="836" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q836" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="837" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q837" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="838" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q838" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="839" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q839" s="93" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="840" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q840" s="93" t="str">
         <f t="shared" ref="Q840:Q903" si="15">IFERROR(AVERAGE(L840:P840),"")</f>
         <v/>
       </c>
     </row>
-    <row r="841" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q841" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="842" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q842" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="843" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q843" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="844" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q844" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="845" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q845" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="846" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q846" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="847" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q847" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="848" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q848" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="849" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q849" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="850" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q850" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="851" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q851" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="852" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q852" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="853" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q853" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="854" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q854" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="855" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q855" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="856" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q856" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="857" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q857" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="858" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q858" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="859" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q859" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="860" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q860" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="861" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q861" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="862" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q862" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="863" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q863" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="864" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q864" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="865" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q865" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="866" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q866" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="867" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q867" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="868" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q868" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="869" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q869" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="870" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q870" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="871" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q871" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="872" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q872" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="873" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q873" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="874" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q874" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="875" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q875" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="876" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q876" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="877" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q877" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="878" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q878" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="879" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q879" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="880" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q880" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="881" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q881" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="882" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q882" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="883" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q883" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="884" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q884" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="885" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q885" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="886" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q886" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="887" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q887" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="888" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q888" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="889" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q889" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="890" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q890" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="891" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q891" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="892" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q892" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="893" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q893" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="894" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q894" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="895" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q895" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="896" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q896" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="897" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q897" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="898" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q898" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="899" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q899" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="900" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q900" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="901" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q901" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="902" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q902" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="903" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q903" s="93" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="904" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q904" s="93" t="str">
         <f t="shared" ref="Q904:Q967" si="16">IFERROR(AVERAGE(L904:P904),"")</f>
         <v/>
       </c>
     </row>
-    <row r="905" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q905" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="906" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q906" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="907" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q907" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="908" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q908" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="909" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q909" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="910" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q910" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="911" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q911" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="912" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q912" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="913" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q913" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="914" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q914" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="915" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q915" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="916" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q916" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="917" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q917" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="918" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q918" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="919" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q919" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="920" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q920" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="921" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q921" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="922" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q922" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="923" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q923" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="924" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q924" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="925" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q925" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="926" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q926" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="927" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q927" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="928" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q928" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="929" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q929" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="930" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q930" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="931" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q931" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="932" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q932" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="933" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q933" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="934" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q934" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="935" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q935" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="936" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q936" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="937" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q937" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="938" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q938" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="939" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q939" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="940" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q940" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="941" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q941" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="942" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q942" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="943" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q943" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="944" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q944" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="945" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q945" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="946" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q946" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="947" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q947" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="948" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q948" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="949" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q949" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="950" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q950" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="951" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q951" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="952" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q952" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="953" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q953" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="954" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q954" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="955" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q955" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="956" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q956" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="957" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q957" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="958" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q958" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="959" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q959" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="960" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q960" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="961" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q961" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="962" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q962" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="963" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q963" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="964" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q964" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="965" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q965" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="966" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q966" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="967" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q967" s="93" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="968" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q968" s="93" t="str">
         <f t="shared" ref="Q968:Q1031" si="17">IFERROR(AVERAGE(L968:P968),"")</f>
         <v/>
       </c>
     </row>
-    <row r="969" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q969" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="970" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q970" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="971" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q971" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="972" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q972" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="973" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q973" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="974" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q974" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="975" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q975" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="976" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q976" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="977" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q977" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="978" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q978" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="979" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q979" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="980" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q980" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="981" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q981" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="982" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q982" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="983" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q983" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="984" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q984" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="985" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q985" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="986" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q986" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="987" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q987" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="988" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q988" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="989" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q989" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="990" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q990" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="991" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q991" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="992" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q992" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="993" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q993" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="994" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q994" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="995" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q995" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="996" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q996" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="997" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q997" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="998" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q998" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="999" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q999" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1000" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1000" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1001" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1001" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1002" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1002" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1002" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1003" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1003" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1003" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1004" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1004" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1004" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1005" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1005" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1005" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1006" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1006" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1006" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1007" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1007" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1007" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1008" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1008" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1008" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1009" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1009" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1009" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1010" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1010" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1010" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1011" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1011" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1011" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1012" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1012" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1012" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1013" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1013" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1013" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1014" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1014" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1014" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1015" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1015" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1015" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1016" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1016" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1016" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1017" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1017" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1017" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1018" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1018" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1018" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1019" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1019" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1019" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1020" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1020" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1020" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1021" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1021" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1021" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1022" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1022" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1022" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1023" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1023" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1023" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1024" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1024" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1024" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1025" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1025" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1025" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1026" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1026" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1026" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1027" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1027" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1027" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1028" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1028" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1028" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1029" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1029" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1029" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1030" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1030" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1030" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1031" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1031" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1031" s="93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="1032" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1032" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1032" s="93" t="str">
         <f t="shared" ref="Q1032:Q1050" si="18">IFERROR(AVERAGE(L1032:P1032),"")</f>
         <v/>
       </c>
     </row>
-    <row r="1033" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1033" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1033" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1034" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1034" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1034" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1035" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1035" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1035" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1036" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1036" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1036" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1037" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1037" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1037" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1038" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1038" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1038" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1039" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1039" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1039" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1040" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1040" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1040" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1041" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1041" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1041" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1042" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1042" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1042" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1043" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1043" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1043" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1044" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1044" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1044" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1045" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1045" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1045" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1046" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1046" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1046" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1047" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1047" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1047" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1048" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1048" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1048" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1049" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1049" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1049" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="1050" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1050" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q1050" s="93" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -10532,17 +10532,17 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="71" customWidth="1"/>
-    <col min="2" max="8" width="11.08984375" style="71"/>
-    <col min="9" max="10" width="4.54296875" style="71" customWidth="1"/>
-    <col min="11" max="17" width="11.08984375" style="71"/>
-    <col min="18" max="19" width="4.54296875" style="71" customWidth="1"/>
-    <col min="20" max="16384" width="11.08984375" style="71"/>
+    <col min="1" max="1" width="4.5546875" style="71" customWidth="1"/>
+    <col min="2" max="8" width="11.109375" style="71"/>
+    <col min="9" max="10" width="4.5546875" style="71" customWidth="1"/>
+    <col min="11" max="17" width="11.109375" style="71"/>
+    <col min="18" max="19" width="4.5546875" style="71" customWidth="1"/>
+    <col min="20" max="16384" width="11.109375" style="71"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="107" t="s">
         <v>72</v>
       </c>
@@ -10562,7 +10562,7 @@
       <c r="P2" s="107"/>
       <c r="Q2" s="107"/>
     </row>
-    <row r="4" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="72" t="s">
         <v>85</v>
       </c>
@@ -10587,7 +10587,7 @@
       <c r="P4" s="71"/>
       <c r="Q4" s="71"/>
     </row>
-    <row r="5" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
       <c r="D5" s="71"/>
@@ -10600,7 +10600,7 @@
       <c r="P5" s="71"/>
       <c r="Q5" s="71"/>
     </row>
-    <row r="6" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="82" t="s">
         <v>78</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="102" t="str">
         <f>IF(C7="","",IF(Data!B19="","1",Data!B19))</f>
         <v/>
@@ -10699,7 +10699,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="103" t="str">
         <f>IF(C8="","",IF(Data!B20="","2",Data!B20))</f>
         <v/>
@@ -10756,7 +10756,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="103" t="str">
         <f>IF(C9="","",IF(Data!B21="","3",Data!B21))</f>
         <v/>
@@ -10813,7 +10813,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="103" t="str">
         <f>IF(C10="","",IF(Data!B22="","4",Data!B22))</f>
         <v/>
@@ -10870,7 +10870,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="104" t="str">
         <f>IF(C11="","",IF(Data!B23="","5",Data!B23))</f>
         <v/>
@@ -10927,7 +10927,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -10945,7 +10945,7 @@
       <c r="P12" s="71"/>
       <c r="Q12" s="71"/>
     </row>
-    <row r="13" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="72" t="s">
         <v>67</v>
       </c>
@@ -10967,7 +10967,7 @@
       <c r="P13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -10985,7 +10985,7 @@
       <c r="P14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>0</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>1.1499999999999999</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>1.1499999999999999</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>1.1499999999999999</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>2.15</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>2.15</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>2.15</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>3.15</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>3.15</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>3.15</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -11527,7 +11527,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>4.1500000000000004</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>4.1500000000000004</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>5.15</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>p</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>5.15</v>
       </c>
@@ -11658,7 +11658,7 @@
       <c r="P30" s="92"/>
       <c r="Q30" s="92"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31" s="3">
         <v>5.15</v>
@@ -11704,7 +11704,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -11727,7 +11727,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="K33" s="100" t="s">
         <v>14</v>
@@ -11748,7 +11748,7 @@
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -11757,7 +11757,7 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -11766,7 +11766,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -11775,7 +11775,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -11784,7 +11784,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -11793,7 +11793,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -11802,7 +11802,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
@@ -11811,7 +11811,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -11820,7 +11820,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -11829,7 +11829,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
@@ -11838,7 +11838,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -11847,7 +11847,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -11856,7 +11856,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -11865,7 +11865,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -11874,7 +11874,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -11883,7 +11883,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
@@ -11892,7 +11892,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -11901,7 +11901,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -11910,7 +11910,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -11919,7 +11919,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -11928,7 +11928,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -11937,7 +11937,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="12"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -11946,7 +11946,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -11955,7 +11955,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -11964,7 +11964,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -11973,7 +11973,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -11982,7 +11982,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -11991,7 +11991,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -12000,7 +12000,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -12009,7 +12009,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -12018,7 +12018,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -12027,7 +12027,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -12036,7 +12036,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -12045,7 +12045,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -12054,7 +12054,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -12063,7 +12063,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -12072,7 +12072,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -12081,7 +12081,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -12090,7 +12090,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -12099,7 +12099,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -12108,7 +12108,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>

--- a/ARISE/ARISE(D)-Repeated.xlsx
+++ b/ARISE/ARISE(D)-Repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA1531C-8237-4EC6-8939-7F39FC1B4484}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E014D9D-F99B-4C6E-8CBF-0AD7DC4E50C5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,13 +335,7 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/ARISE</t>
-  </si>
-  <si>
     <t>http://cwendorf.github.io</t>
-  </si>
-  <si>
-    <t>Version: 2.210601</t>
   </si>
   <si>
     <t>Wendorf, C. A. (2021).</t>
@@ -351,6 +345,12 @@
   </si>
   <si>
     <t>Within Subjects Error</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/ARISE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -2719,6 +2719,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3009,7 +3013,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3065,7 +3069,7 @@
       <c r="I3" s="105"/>
       <c r="J3" s="105"/>
       <c r="K3" s="108" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L3" s="108"/>
       <c r="M3" s="108"/>
@@ -3088,7 +3092,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="105"/>
       <c r="K4" s="109" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L4" s="108"/>
       <c r="M4" s="108"/>
@@ -3385,7 +3389,7 @@
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="K26" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3434,7 +3438,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="K30" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3443,7 +3447,7 @@
       </c>
       <c r="C31" s="20"/>
       <c r="K31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3451,7 +3455,7 @@
         <v>23</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11709,7 +11713,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="K32" s="99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L32" s="65"/>
       <c r="M32" s="7" t="str">

--- a/ARISE/ARISE(D)-Repeated.xlsx
+++ b/ARISE/ARISE(D)-Repeated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/ARISE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E014D9D-F99B-4C6E-8CBF-0AD7DC4E50C5}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="114_{BCCCA069-EEA0-46FF-A965-FF5900F0C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0091A789-0F72-462C-9A39-D537F41A94DA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2719,10 +2719,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
